--- a/liga_classica/datasets_liga_classica/links_times_cartola_liga_classica.xlsx
+++ b/liga_classica/datasets_liga_classica/links_times_cartola_liga_classica.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
   <si>
     <t>Nome do Time</t>
   </si>
@@ -40,12 +40,6 @@
     <t>BordonFC04</t>
   </si>
   <si>
-    <t>BORGES CLIMA FUT F.C</t>
-  </si>
-  <si>
-    <t>BORGES ITAQUI F.C.</t>
-  </si>
-  <si>
     <t>C.A. Charru@</t>
   </si>
   <si>
@@ -197,12 +191,6 @@
   </si>
   <si>
     <t>https://cartola.globo.com/#!/time/50988641</t>
-  </si>
-  <si>
-    <t>https://cartola.globo.com/#!/time/49852616</t>
-  </si>
-  <si>
-    <t>https://cartola.globo.com/#!/time/3914981</t>
   </si>
   <si>
     <t>https://cartola.globo.com/#!/time/25748736</t>
@@ -711,7 +699,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C54"/>
+  <dimension ref="A1:C52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -736,7 +724,7 @@
         <v>117598</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -747,7 +735,7 @@
         <v>49355335</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -758,7 +746,7 @@
         <v>18346776</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -769,7 +757,7 @@
         <v>13913874</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -780,7 +768,7 @@
         <v>50988641</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -788,10 +776,10 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>49852616</v>
+        <v>25748736</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -799,10 +787,10 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>3914981</v>
+        <v>3851966</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -810,10 +798,10 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>25748736</v>
+        <v>49243759</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -821,10 +809,10 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>3851966</v>
+        <v>7017989</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -832,10 +820,10 @@
         <v>12</v>
       </c>
       <c r="B11">
-        <v>49243759</v>
+        <v>387186</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -843,10 +831,10 @@
         <v>13</v>
       </c>
       <c r="B12">
-        <v>7017989</v>
+        <v>20696550</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -854,10 +842,10 @@
         <v>14</v>
       </c>
       <c r="B13">
-        <v>387186</v>
+        <v>186283</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -865,10 +853,10 @@
         <v>15</v>
       </c>
       <c r="B14">
-        <v>20696550</v>
+        <v>1863710</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -876,10 +864,10 @@
         <v>16</v>
       </c>
       <c r="B15">
-        <v>186283</v>
+        <v>48279389</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -887,10 +875,10 @@
         <v>17</v>
       </c>
       <c r="B16">
-        <v>1863710</v>
+        <v>25311459</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -898,10 +886,10 @@
         <v>18</v>
       </c>
       <c r="B17">
-        <v>48279389</v>
+        <v>18642587</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -909,10 +897,10 @@
         <v>19</v>
       </c>
       <c r="B18">
-        <v>25311459</v>
+        <v>25565675</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -920,10 +908,10 @@
         <v>20</v>
       </c>
       <c r="B19">
-        <v>18642587</v>
+        <v>18344271</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -931,10 +919,10 @@
         <v>21</v>
       </c>
       <c r="B20">
-        <v>25565675</v>
+        <v>18421230</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -942,10 +930,10 @@
         <v>22</v>
       </c>
       <c r="B21">
-        <v>18344271</v>
+        <v>528730</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -953,10 +941,10 @@
         <v>23</v>
       </c>
       <c r="B22">
-        <v>18421230</v>
+        <v>24468241</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -964,10 +952,10 @@
         <v>24</v>
       </c>
       <c r="B23">
-        <v>528730</v>
+        <v>13951133</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -975,10 +963,10 @@
         <v>25</v>
       </c>
       <c r="B24">
-        <v>24468241</v>
+        <v>1747619</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -986,10 +974,10 @@
         <v>26</v>
       </c>
       <c r="B25">
-        <v>13951133</v>
+        <v>51010813</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -997,10 +985,10 @@
         <v>27</v>
       </c>
       <c r="B26">
-        <v>1747619</v>
+        <v>44810918</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1008,10 +996,10 @@
         <v>28</v>
       </c>
       <c r="B27">
-        <v>51010813</v>
+        <v>20340994</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1019,10 +1007,10 @@
         <v>29</v>
       </c>
       <c r="B28">
-        <v>44810918</v>
+        <v>4911779</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1030,10 +1018,10 @@
         <v>30</v>
       </c>
       <c r="B29">
-        <v>20340994</v>
+        <v>19033717</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1041,10 +1029,10 @@
         <v>31</v>
       </c>
       <c r="B30">
-        <v>4911779</v>
+        <v>25401606</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1052,10 +1040,10 @@
         <v>32</v>
       </c>
       <c r="B31">
-        <v>19033717</v>
+        <v>30267301</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1063,10 +1051,10 @@
         <v>33</v>
       </c>
       <c r="B32">
-        <v>25401606</v>
+        <v>3708025</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1074,10 +1062,10 @@
         <v>34</v>
       </c>
       <c r="B33">
-        <v>30267301</v>
+        <v>14124559</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1085,10 +1073,10 @@
         <v>35</v>
       </c>
       <c r="B34">
-        <v>3708025</v>
+        <v>48498051</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1096,10 +1084,10 @@
         <v>36</v>
       </c>
       <c r="B35">
-        <v>14124559</v>
+        <v>25313333</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1107,10 +1095,10 @@
         <v>37</v>
       </c>
       <c r="B36">
-        <v>48498051</v>
+        <v>9823692</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1118,10 +1106,10 @@
         <v>38</v>
       </c>
       <c r="B37">
-        <v>25313333</v>
+        <v>3447341</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1129,10 +1117,10 @@
         <v>39</v>
       </c>
       <c r="B38">
-        <v>9823692</v>
+        <v>18223508</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1140,10 +1128,10 @@
         <v>40</v>
       </c>
       <c r="B39">
-        <v>3447341</v>
+        <v>5823700</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1151,10 +1139,10 @@
         <v>41</v>
       </c>
       <c r="B40">
-        <v>18223508</v>
+        <v>29228373</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1162,10 +1150,10 @@
         <v>42</v>
       </c>
       <c r="B41">
-        <v>5823700</v>
+        <v>25811332</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1173,10 +1161,10 @@
         <v>43</v>
       </c>
       <c r="B42">
-        <v>29228373</v>
+        <v>1148959</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1184,10 +1172,10 @@
         <v>44</v>
       </c>
       <c r="B43">
-        <v>25811332</v>
+        <v>13707047</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1195,10 +1183,10 @@
         <v>45</v>
       </c>
       <c r="B44">
-        <v>1148959</v>
+        <v>4229593</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1206,10 +1194,10 @@
         <v>46</v>
       </c>
       <c r="B45">
-        <v>13707047</v>
+        <v>28741323</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1217,10 +1205,10 @@
         <v>47</v>
       </c>
       <c r="B46">
-        <v>4229593</v>
+        <v>49180400</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1228,10 +1216,10 @@
         <v>48</v>
       </c>
       <c r="B47">
-        <v>28741323</v>
+        <v>212042</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1239,10 +1227,10 @@
         <v>49</v>
       </c>
       <c r="B48">
-        <v>49180400</v>
+        <v>335716</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1250,10 +1238,10 @@
         <v>50</v>
       </c>
       <c r="B49">
-        <v>212042</v>
+        <v>1273719</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1261,10 +1249,10 @@
         <v>51</v>
       </c>
       <c r="B50">
-        <v>335716</v>
+        <v>3424598</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1272,10 +1260,10 @@
         <v>52</v>
       </c>
       <c r="B51">
-        <v>1273719</v>
+        <v>2981301</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1283,32 +1271,10 @@
         <v>53</v>
       </c>
       <c r="B52">
-        <v>3424598</v>
+        <v>14696986</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" t="s">
-        <v>54</v>
-      </c>
-      <c r="B53">
-        <v>2981301</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" t="s">
-        <v>55</v>
-      </c>
-      <c r="B54">
-        <v>14696986</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -1318,54 +1284,52 @@
     <hyperlink ref="C4" r:id="rId3" location="!/time/18346776"/>
     <hyperlink ref="C5" r:id="rId4" location="!/time/13913874"/>
     <hyperlink ref="C6" r:id="rId5" location="!/time/50988641"/>
-    <hyperlink ref="C7" r:id="rId6" location="!/time/49852616"/>
-    <hyperlink ref="C8" r:id="rId7" location="!/time/3914981"/>
-    <hyperlink ref="C9" r:id="rId8" location="!/time/25748736"/>
-    <hyperlink ref="C10" r:id="rId9" location="!/time/3851966"/>
-    <hyperlink ref="C11" r:id="rId10" location="!/time/49243759"/>
-    <hyperlink ref="C12" r:id="rId11" location="!/time/7017989"/>
-    <hyperlink ref="C13" r:id="rId12" location="!/time/387186"/>
-    <hyperlink ref="C14" r:id="rId13" location="!/time/20696550"/>
-    <hyperlink ref="C15" r:id="rId14" location="!/time/186283"/>
-    <hyperlink ref="C16" r:id="rId15" location="!/time/1863710"/>
-    <hyperlink ref="C17" r:id="rId16" location="!/time/48279389"/>
-    <hyperlink ref="C18" r:id="rId17" location="!/time/25311459"/>
-    <hyperlink ref="C19" r:id="rId18" location="!/time/18642587"/>
-    <hyperlink ref="C20" r:id="rId19" location="!/time/25565675"/>
-    <hyperlink ref="C21" r:id="rId20" location="!/time/18344271"/>
-    <hyperlink ref="C22" r:id="rId21" location="!/time/18421230"/>
-    <hyperlink ref="C23" r:id="rId22" location="!/time/528730"/>
-    <hyperlink ref="C24" r:id="rId23" location="!/time/24468241"/>
-    <hyperlink ref="C25" r:id="rId24" location="!/time/13951133"/>
-    <hyperlink ref="C26" r:id="rId25" location="!/time/1747619"/>
-    <hyperlink ref="C27" r:id="rId26" location="!/time/51010813"/>
-    <hyperlink ref="C28" r:id="rId27" location="!/time/44810918"/>
-    <hyperlink ref="C29" r:id="rId28" location="!/time/20340994"/>
-    <hyperlink ref="C30" r:id="rId29" location="!/time/4911779"/>
-    <hyperlink ref="C31" r:id="rId30" location="!/time/19033717"/>
-    <hyperlink ref="C32" r:id="rId31" location="!/time/25401606"/>
-    <hyperlink ref="C33" r:id="rId32" location="!/time/30267301"/>
-    <hyperlink ref="C34" r:id="rId33" location="!/time/3708025"/>
-    <hyperlink ref="C35" r:id="rId34" location="!/time/14124559"/>
-    <hyperlink ref="C36" r:id="rId35" location="!/time/48498051"/>
-    <hyperlink ref="C37" r:id="rId36" location="!/time/25313333"/>
-    <hyperlink ref="C38" r:id="rId37" location="!/time/9823692"/>
-    <hyperlink ref="C39" r:id="rId38" location="!/time/3447341"/>
-    <hyperlink ref="C40" r:id="rId39" location="!/time/18223508"/>
-    <hyperlink ref="C41" r:id="rId40" location="!/time/5823700"/>
-    <hyperlink ref="C42" r:id="rId41" location="!/time/29228373"/>
-    <hyperlink ref="C43" r:id="rId42" location="!/time/25811332"/>
-    <hyperlink ref="C44" r:id="rId43" location="!/time/1148959"/>
-    <hyperlink ref="C45" r:id="rId44" location="!/time/13707047"/>
-    <hyperlink ref="C46" r:id="rId45" location="!/time/4229593"/>
-    <hyperlink ref="C47" r:id="rId46" location="!/time/28741323"/>
-    <hyperlink ref="C48" r:id="rId47" location="!/time/49180400"/>
-    <hyperlink ref="C49" r:id="rId48" location="!/time/212042"/>
-    <hyperlink ref="C50" r:id="rId49" location="!/time/335716"/>
-    <hyperlink ref="C51" r:id="rId50" location="!/time/1273719"/>
-    <hyperlink ref="C52" r:id="rId51" location="!/time/3424598"/>
-    <hyperlink ref="C53" r:id="rId52" location="!/time/2981301"/>
-    <hyperlink ref="C54" r:id="rId53" location="!/time/14696986"/>
+    <hyperlink ref="C7" r:id="rId6" location="!/time/25748736"/>
+    <hyperlink ref="C8" r:id="rId7" location="!/time/3851966"/>
+    <hyperlink ref="C9" r:id="rId8" location="!/time/49243759"/>
+    <hyperlink ref="C10" r:id="rId9" location="!/time/7017989"/>
+    <hyperlink ref="C11" r:id="rId10" location="!/time/387186"/>
+    <hyperlink ref="C12" r:id="rId11" location="!/time/20696550"/>
+    <hyperlink ref="C13" r:id="rId12" location="!/time/186283"/>
+    <hyperlink ref="C14" r:id="rId13" location="!/time/1863710"/>
+    <hyperlink ref="C15" r:id="rId14" location="!/time/48279389"/>
+    <hyperlink ref="C16" r:id="rId15" location="!/time/25311459"/>
+    <hyperlink ref="C17" r:id="rId16" location="!/time/18642587"/>
+    <hyperlink ref="C18" r:id="rId17" location="!/time/25565675"/>
+    <hyperlink ref="C19" r:id="rId18" location="!/time/18344271"/>
+    <hyperlink ref="C20" r:id="rId19" location="!/time/18421230"/>
+    <hyperlink ref="C21" r:id="rId20" location="!/time/528730"/>
+    <hyperlink ref="C22" r:id="rId21" location="!/time/24468241"/>
+    <hyperlink ref="C23" r:id="rId22" location="!/time/13951133"/>
+    <hyperlink ref="C24" r:id="rId23" location="!/time/1747619"/>
+    <hyperlink ref="C25" r:id="rId24" location="!/time/51010813"/>
+    <hyperlink ref="C26" r:id="rId25" location="!/time/44810918"/>
+    <hyperlink ref="C27" r:id="rId26" location="!/time/20340994"/>
+    <hyperlink ref="C28" r:id="rId27" location="!/time/4911779"/>
+    <hyperlink ref="C29" r:id="rId28" location="!/time/19033717"/>
+    <hyperlink ref="C30" r:id="rId29" location="!/time/25401606"/>
+    <hyperlink ref="C31" r:id="rId30" location="!/time/30267301"/>
+    <hyperlink ref="C32" r:id="rId31" location="!/time/3708025"/>
+    <hyperlink ref="C33" r:id="rId32" location="!/time/14124559"/>
+    <hyperlink ref="C34" r:id="rId33" location="!/time/48498051"/>
+    <hyperlink ref="C35" r:id="rId34" location="!/time/25313333"/>
+    <hyperlink ref="C36" r:id="rId35" location="!/time/9823692"/>
+    <hyperlink ref="C37" r:id="rId36" location="!/time/3447341"/>
+    <hyperlink ref="C38" r:id="rId37" location="!/time/18223508"/>
+    <hyperlink ref="C39" r:id="rId38" location="!/time/5823700"/>
+    <hyperlink ref="C40" r:id="rId39" location="!/time/29228373"/>
+    <hyperlink ref="C41" r:id="rId40" location="!/time/25811332"/>
+    <hyperlink ref="C42" r:id="rId41" location="!/time/1148959"/>
+    <hyperlink ref="C43" r:id="rId42" location="!/time/13707047"/>
+    <hyperlink ref="C44" r:id="rId43" location="!/time/4229593"/>
+    <hyperlink ref="C45" r:id="rId44" location="!/time/28741323"/>
+    <hyperlink ref="C46" r:id="rId45" location="!/time/49180400"/>
+    <hyperlink ref="C47" r:id="rId46" location="!/time/212042"/>
+    <hyperlink ref="C48" r:id="rId47" location="!/time/335716"/>
+    <hyperlink ref="C49" r:id="rId48" location="!/time/1273719"/>
+    <hyperlink ref="C50" r:id="rId49" location="!/time/3424598"/>
+    <hyperlink ref="C51" r:id="rId50" location="!/time/2981301"/>
+    <hyperlink ref="C52" r:id="rId51" location="!/time/14696986"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/liga_classica/datasets_liga_classica/links_times_cartola_liga_classica.xlsx
+++ b/liga_classica/datasets_liga_classica/links_times_cartola_liga_classica.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
   <si>
     <t>Nome do Time</t>
   </si>
@@ -163,6 +163,9 @@
     <t>Tatols Beants F.C</t>
   </si>
   <si>
+    <t>TEAM LOPES 99</t>
+  </si>
+  <si>
     <t>teves_futsal20 f.c</t>
   </si>
   <si>
@@ -314,6 +317,9 @@
   </si>
   <si>
     <t>https://cartola.globo.com/#!/time/212042</t>
+  </si>
+  <si>
+    <t>https://cartola.globo.com/#!/time/479510</t>
   </si>
   <si>
     <t>https://cartola.globo.com/#!/time/335716</t>
@@ -699,7 +705,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C52"/>
+  <dimension ref="A1:C53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -724,7 +730,7 @@
         <v>117598</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -735,7 +741,7 @@
         <v>49355335</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -746,7 +752,7 @@
         <v>18346776</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -757,7 +763,7 @@
         <v>13913874</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -768,7 +774,7 @@
         <v>50988641</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -779,7 +785,7 @@
         <v>25748736</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -790,7 +796,7 @@
         <v>3851966</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -801,7 +807,7 @@
         <v>49243759</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -812,7 +818,7 @@
         <v>7017989</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -823,7 +829,7 @@
         <v>387186</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -834,7 +840,7 @@
         <v>20696550</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -845,7 +851,7 @@
         <v>186283</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -856,7 +862,7 @@
         <v>1863710</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -867,7 +873,7 @@
         <v>48279389</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -878,7 +884,7 @@
         <v>25311459</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -889,7 +895,7 @@
         <v>18642587</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -900,7 +906,7 @@
         <v>25565675</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -911,7 +917,7 @@
         <v>18344271</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -922,7 +928,7 @@
         <v>18421230</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -933,7 +939,7 @@
         <v>528730</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -944,7 +950,7 @@
         <v>24468241</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -955,7 +961,7 @@
         <v>13951133</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -966,7 +972,7 @@
         <v>1747619</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -977,7 +983,7 @@
         <v>51010813</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -988,7 +994,7 @@
         <v>44810918</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -999,7 +1005,7 @@
         <v>20340994</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1010,7 +1016,7 @@
         <v>4911779</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1021,7 +1027,7 @@
         <v>19033717</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1032,7 +1038,7 @@
         <v>25401606</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1043,7 +1049,7 @@
         <v>30267301</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1054,7 +1060,7 @@
         <v>3708025</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1065,7 +1071,7 @@
         <v>14124559</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1076,7 +1082,7 @@
         <v>48498051</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1087,7 +1093,7 @@
         <v>25313333</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1098,7 +1104,7 @@
         <v>9823692</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1109,7 +1115,7 @@
         <v>3447341</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1120,7 +1126,7 @@
         <v>18223508</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1131,7 +1137,7 @@
         <v>5823700</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1142,7 +1148,7 @@
         <v>29228373</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1153,7 +1159,7 @@
         <v>25811332</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1164,7 +1170,7 @@
         <v>1148959</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1175,7 +1181,7 @@
         <v>13707047</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1186,7 +1192,7 @@
         <v>4229593</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1197,7 +1203,7 @@
         <v>28741323</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1208,7 +1214,7 @@
         <v>49180400</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1219,7 +1225,7 @@
         <v>212042</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1227,10 +1233,10 @@
         <v>49</v>
       </c>
       <c r="B48">
-        <v>335716</v>
+        <v>479510</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1238,10 +1244,10 @@
         <v>50</v>
       </c>
       <c r="B49">
-        <v>1273719</v>
+        <v>335716</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1249,10 +1255,10 @@
         <v>51</v>
       </c>
       <c r="B50">
-        <v>3424598</v>
+        <v>1273719</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1260,10 +1266,10 @@
         <v>52</v>
       </c>
       <c r="B51">
-        <v>2981301</v>
+        <v>3424598</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1271,10 +1277,21 @@
         <v>53</v>
       </c>
       <c r="B52">
+        <v>2981301</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" t="s">
+        <v>54</v>
+      </c>
+      <c r="B53">
         <v>14696986</v>
       </c>
-      <c r="C52" s="2" t="s">
-        <v>104</v>
+      <c r="C53" s="2" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -1325,11 +1342,12 @@
     <hyperlink ref="C45" r:id="rId44" location="!/time/28741323"/>
     <hyperlink ref="C46" r:id="rId45" location="!/time/49180400"/>
     <hyperlink ref="C47" r:id="rId46" location="!/time/212042"/>
-    <hyperlink ref="C48" r:id="rId47" location="!/time/335716"/>
-    <hyperlink ref="C49" r:id="rId48" location="!/time/1273719"/>
-    <hyperlink ref="C50" r:id="rId49" location="!/time/3424598"/>
-    <hyperlink ref="C51" r:id="rId50" location="!/time/2981301"/>
-    <hyperlink ref="C52" r:id="rId51" location="!/time/14696986"/>
+    <hyperlink ref="C48" r:id="rId47" location="!/time/479510"/>
+    <hyperlink ref="C49" r:id="rId48" location="!/time/335716"/>
+    <hyperlink ref="C50" r:id="rId49" location="!/time/1273719"/>
+    <hyperlink ref="C51" r:id="rId50" location="!/time/3424598"/>
+    <hyperlink ref="C52" r:id="rId51" location="!/time/2981301"/>
+    <hyperlink ref="C53" r:id="rId52" location="!/time/14696986"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
